--- a/比特直播课/比特直播课笔记/笔记-C语言/2024_10_17 20.自定义类型-联合体和枚举.xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C语言/2024_10_17 20.自定义类型-联合体和枚举.xlsx
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N185:Y241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="S332" sqref="S332"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="AD75" sqref="AD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
